--- a/Coaches_carreers/Coaches/Thomas Frank.xlsx
+++ b/Coaches_carreers/Coaches/Thomas Frank.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE126"/>
+  <dimension ref="A1:AF126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -698,6 +703,11 @@
       <c r="AE2" t="n">
         <v>0.2007797270955166</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -803,6 +813,11 @@
       <c r="AE3" t="n">
         <v>0.3990929705215419</v>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -908,6 +923,11 @@
       <c r="AE4" t="n">
         <v>0.3125020254460842</v>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1013,6 +1033,11 @@
       <c r="AE5" t="n">
         <v>0.222970436097943</v>
       </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1143,11 @@
       <c r="AE6" t="n">
         <v>0.3990929705215419</v>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1223,6 +1253,11 @@
       <c r="AE7" t="n">
         <v>0.3241830065359477</v>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1328,6 +1363,11 @@
       <c r="AE8" t="n">
         <v>0.3367466997659776</v>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1433,6 +1473,11 @@
       <c r="AE9" t="n">
         <v>0.241340530814215</v>
       </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1538,6 +1583,11 @@
       <c r="AE10" t="n">
         <v>0.2597883597883598</v>
       </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1643,6 +1693,11 @@
       <c r="AE11" t="n">
         <v>0.3735005452562705</v>
       </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1748,6 +1803,11 @@
       <c r="AE12" t="n">
         <v>0.1242424242424242</v>
       </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1853,6 +1913,11 @@
       <c r="AE13" t="n">
         <v>0.3045845997973657</v>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1958,6 +2023,11 @@
       <c r="AE14" t="n">
         <v>0.3024494595322085</v>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2063,6 +2133,11 @@
       <c r="AE15" t="n">
         <v>0.3367466997659776</v>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2168,6 +2243,11 @@
       <c r="AE16" t="n">
         <v>0.3047385620915032</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2273,6 +2353,11 @@
       <c r="AE17" t="n">
         <v>0.4907407407407408</v>
       </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2378,6 +2463,11 @@
       <c r="AE18" t="n">
         <v>0.376761845321683</v>
       </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2483,6 +2573,11 @@
       <c r="AE19" t="n">
         <v>0.285484116127071</v>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2588,6 +2683,11 @@
       <c r="AE20" t="n">
         <v>0.212962962962963</v>
       </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2693,6 +2793,11 @@
       <c r="AE21" t="n">
         <v>0.4176165146909828</v>
       </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2798,6 +2903,11 @@
       <c r="AE22" t="n">
         <v>0.1928571428571429</v>
       </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2903,6 +3013,11 @@
       <c r="AE23" t="n">
         <v>0.3029804748903781</v>
       </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3008,6 +3123,11 @@
       <c r="AE24" t="n">
         <v>0.2285307285307285</v>
       </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3113,6 +3233,11 @@
       <c r="AE25" t="n">
         <v>0.2681975942566443</v>
       </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3218,6 +3343,11 @@
       <c r="AE26" t="n">
         <v>0.436026936026936</v>
       </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3323,6 +3453,11 @@
       <c r="AE27" t="n">
         <v>0.3481170245876128</v>
       </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3428,6 +3563,11 @@
       <c r="AE28" t="n">
         <v>0.2761904761904762</v>
       </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3533,6 +3673,11 @@
       <c r="AE29" t="n">
         <v>0.1101077858043802</v>
       </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3638,6 +3783,11 @@
       <c r="AE30" t="n">
         <v>0.4377436647173489</v>
       </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3743,6 +3893,11 @@
       <c r="AE31" t="n">
         <v>0.2946127946127946</v>
       </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3847,6 +4002,11 @@
       </c>
       <c r="AE32" t="n">
         <v>0.4900584795321638</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3921,6 +4081,11 @@
       <c r="AE33" t="n">
         <v>0.5974120082815735</v>
       </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4026,6 +4191,11 @@
       <c r="AE34" t="n">
         <v>0.2412280701754387</v>
       </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4131,6 +4301,11 @@
       <c r="AE35" t="n">
         <v>0.1751336898395722</v>
       </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4236,6 +4411,11 @@
       <c r="AE36" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4341,6 +4521,11 @@
       <c r="AE37" t="n">
         <v>0.1641727837380012</v>
       </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4446,6 +4631,11 @@
       <c r="AE38" t="n">
         <v>0.1726190476190476</v>
       </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4551,6 +4741,11 @@
       <c r="AE39" t="n">
         <v>0.424063532222925</v>
       </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4656,6 +4851,11 @@
       <c r="AE40" t="n">
         <v>0.2338217338217338</v>
       </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4761,6 +4961,11 @@
       <c r="AE41" t="n">
         <v>0.3549812347896467</v>
       </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4866,6 +5071,11 @@
       <c r="AE42" t="n">
         <v>0.2060632060632061</v>
       </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4971,6 +5181,11 @@
       <c r="AE43" t="n">
         <v>0.4837092731829574</v>
       </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5076,6 +5291,11 @@
       <c r="AE44" t="n">
         <v>0.2270955165692008</v>
       </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5181,6 +5401,11 @@
       <c r="AE45" t="n">
         <v>0.3828458804068561</v>
       </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5286,6 +5511,11 @@
       <c r="AE46" t="n">
         <v>0.1839793281653747</v>
       </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5391,6 +5621,11 @@
       <c r="AE47" t="n">
         <v>0.3440285204991086</v>
       </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5496,6 +5731,11 @@
       <c r="AE48" t="n">
         <v>0.3776844070961718</v>
       </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5601,6 +5841,11 @@
       <c r="AE49" t="n">
         <v>0.1217040770278008</v>
       </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5706,6 +5951,11 @@
       <c r="AE50" t="n">
         <v>0.4601618425147837</v>
       </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5811,6 +6061,11 @@
       <c r="AE51" t="n">
         <v>0.1839793281653747</v>
       </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5916,6 +6171,11 @@
       <c r="AE52" t="n">
         <v>0.4060903027828303</v>
       </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6021,6 +6281,11 @@
       <c r="AE53" t="n">
         <v>0.1137584466683774</v>
       </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6126,6 +6391,11 @@
       <c r="AE54" t="n">
         <v>0.3297239346019833</v>
       </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6231,6 +6501,11 @@
       <c r="AE55" t="n">
         <v>0.16485335280516</v>
       </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6336,6 +6611,11 @@
       <c r="AE56" t="n">
         <v>0.2857991681521093</v>
       </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6441,6 +6721,11 @@
       <c r="AE57" t="n">
         <v>0.2857991681521093</v>
       </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6546,6 +6831,11 @@
       <c r="AE58" t="n">
         <v>0.1641727837380012</v>
       </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6651,6 +6941,11 @@
       <c r="AE59" t="n">
         <v>0.4698071861101386</v>
       </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6756,6 +7051,11 @@
       <c r="AE60" t="n">
         <v>0.5214714714714714</v>
       </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6861,6 +7161,11 @@
       <c r="AE61" t="n">
         <v>0.1641727837380012</v>
       </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6966,6 +7271,11 @@
       <c r="AE62" t="n">
         <v>0.565374677002584</v>
       </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7071,6 +7381,11 @@
       <c r="AE63" t="n">
         <v>0.1545167265991064</v>
       </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7176,6 +7491,11 @@
       <c r="AE64" t="n">
         <v>0.4962346962346963</v>
       </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7281,6 +7601,11 @@
       <c r="AE65" t="n">
         <v>0.1343101343101344</v>
       </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7386,6 +7711,11 @@
       <c r="AE66" t="n">
         <v>0.3262902862294343</v>
       </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7491,6 +7821,11 @@
       <c r="AE67" t="n">
         <v>0.4966422466422467</v>
       </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7596,6 +7931,11 @@
       <c r="AE68" t="n">
         <v>0.1487968860580326</v>
       </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7701,6 +8041,11 @@
       <c r="AE69" t="n">
         <v>0.6284875516499367</v>
       </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7806,6 +8151,11 @@
       <c r="AE70" t="n">
         <v>0.447162656464982</v>
       </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7911,6 +8261,11 @@
       <c r="AE71" t="n">
         <v>0.142215689476836</v>
       </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8016,6 +8371,11 @@
       <c r="AE72" t="n">
         <v>0.3829131652661065</v>
       </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8121,6 +8481,11 @@
       <c r="AE73" t="n">
         <v>0.3288749564611633</v>
       </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8226,6 +8591,11 @@
       <c r="AE74" t="n">
         <v>0.5699346405228758</v>
       </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8331,6 +8701,11 @@
       <c r="AE75" t="n">
         <v>0.1366929196028503</v>
       </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8436,6 +8811,11 @@
       <c r="AE76" t="n">
         <v>0.07291666666666667</v>
       </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8541,6 +8921,11 @@
       <c r="AE77" t="n">
         <v>0.5366193260930103</v>
       </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8646,6 +9031,11 @@
       <c r="AE78" t="n">
         <v>0.1246122970260901</v>
       </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8751,6 +9141,11 @@
       <c r="AE79" t="n">
         <v>0.5849397590361446</v>
       </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8856,6 +9251,11 @@
       <c r="AE80" t="n">
         <v>0.1049019607843137</v>
       </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8961,6 +9361,11 @@
       <c r="AE81" t="n">
         <v>0.5370370370370371</v>
       </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9066,6 +9471,11 @@
       <c r="AE82" t="n">
         <v>0.1273731714908185</v>
       </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9171,6 +9581,11 @@
       <c r="AE83" t="n">
         <v>0.447162656464982</v>
       </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9276,6 +9691,11 @@
       <c r="AE84" t="n">
         <v>0.1828689370485036</v>
       </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9381,6 +9801,11 @@
       <c r="AE85" t="n">
         <v>0.1576086956521739</v>
       </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9486,6 +9911,11 @@
       <c r="AE86" t="n">
         <v>0.4473324213406292</v>
       </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9591,6 +10021,11 @@
       <c r="AE87" t="n">
         <v>0.4168391994478951</v>
       </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9696,6 +10131,11 @@
       <c r="AE88" t="n">
         <v>0.295479302832244</v>
       </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9801,6 +10241,11 @@
       <c r="AE89" t="n">
         <v>0.5532736383800213</v>
       </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9906,6 +10351,11 @@
       <c r="AE90" t="n">
         <v>0.2338217338217338</v>
       </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10011,6 +10461,11 @@
       <c r="AE91" t="n">
         <v>0.2037037037037037</v>
       </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10116,6 +10571,11 @@
       <c r="AE92" t="n">
         <v>0.6507936507936508</v>
       </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10221,6 +10681,11 @@
       <c r="AE93" t="n">
         <v>0.4575163398692811</v>
       </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10326,6 +10791,11 @@
       <c r="AE94" t="n">
         <v>0.167055167055167</v>
       </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10431,6 +10901,11 @@
       <c r="AE95" t="n">
         <v>0.5630354957160343</v>
       </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10536,6 +11011,11 @@
       <c r="AE96" t="n">
         <v>0.2380952380952381</v>
       </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10641,6 +11121,11 @@
       <c r="AE97" t="n">
         <v>0.1576086956521739</v>
       </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10746,6 +11231,11 @@
       <c r="AE98" t="n">
         <v>0.4571909571909571</v>
       </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10851,6 +11341,11 @@
       <c r="AE99" t="n">
         <v>0.326321116171474</v>
       </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10956,6 +11451,11 @@
       <c r="AE100" t="n">
         <v>0.1533471359558316</v>
       </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11061,6 +11561,11 @@
       <c r="AE101" t="n">
         <v>0.4311868686868687</v>
       </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11166,6 +11671,11 @@
       <c r="AE102" t="n">
         <v>0.3262902862294343</v>
       </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11271,6 +11781,11 @@
       <c r="AE103" t="n">
         <v>0.1358639125987433</v>
       </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11376,6 +11891,11 @@
       <c r="AE104" t="n">
         <v>0.3824933687002653</v>
       </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11481,6 +12001,11 @@
       <c r="AE105" t="n">
         <v>0.09328877749930381</v>
       </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11586,6 +12111,11 @@
       <c r="AE106" t="n">
         <v>0.09959539371304076</v>
       </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11691,6 +12221,11 @@
       <c r="AE107" t="n">
         <v>0.4045363012288288</v>
       </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11796,6 +12331,11 @@
       <c r="AE108" t="n">
         <v>0.4707058975351659</v>
       </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11901,6 +12441,11 @@
       <c r="AE109" t="n">
         <v>0.1545167265991064</v>
       </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12006,6 +12551,11 @@
       <c r="AE110" t="n">
         <v>0.5242385242385242</v>
       </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12111,6 +12661,11 @@
       <c r="AE111" t="n">
         <v>0.52805717162284</v>
       </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12216,6 +12771,11 @@
       <c r="AE112" t="n">
         <v>0.1331243742109616</v>
       </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12321,6 +12881,11 @@
       <c r="AE113" t="n">
         <v>0.1932609301030354</v>
       </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12426,6 +12991,11 @@
       <c r="AE114" t="n">
         <v>0.2763337893296853</v>
       </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12531,6 +13101,11 @@
       <c r="AE115" t="n">
         <v>0.4603174603174603</v>
       </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12636,6 +13211,11 @@
       <c r="AE116" t="n">
         <v>0.5068062312644356</v>
       </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12741,6 +13321,11 @@
       <c r="AE117" t="n">
         <v>0.1753501400560224</v>
       </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12846,6 +13431,11 @@
       <c r="AE118" t="n">
         <v>0.5341288170387478</v>
       </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12951,6 +13541,11 @@
       <c r="AE119" t="n">
         <v>0.1353735869864902</v>
       </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13056,6 +13651,11 @@
       <c r="AE120" t="n">
         <v>0.5068062312644356</v>
       </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13161,6 +13761,11 @@
       <c r="AE121" t="n">
         <v>0.1483918128654971</v>
       </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13266,6 +13871,11 @@
       <c r="AE122" t="n">
         <v>0.1545167265991064</v>
       </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13371,6 +13981,11 @@
       <c r="AE123" t="n">
         <v>0.316869363779267</v>
       </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13476,6 +14091,11 @@
       <c r="AE124" t="n">
         <v>0.1487968860580326</v>
       </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13581,6 +14201,11 @@
       <c r="AE125" t="n">
         <v>0.305331541218638</v>
       </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13685,6 +14310,11 @@
       </c>
       <c r="AE126" t="n">
         <v>0.6031746031746031</v>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
       </c>
     </row>
   </sheetData>
